--- a/src/main/resources/allCell.xlsx
+++ b/src/main/resources/allCell.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Ячейка</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>Afsad</t>
+  </si>
+  <si>
+    <t>ФЫвчя</t>
+  </si>
+  <si>
+    <t>ASdxc</t>
+  </si>
+  <si>
+    <t>QWER</t>
+  </si>
+  <si>
+    <t>qewrt</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>ASdxzc</t>
+  </si>
+  <si>
+    <t>SAdzxzc</t>
+  </si>
+  <si>
+    <t>PIkmac</t>
+  </si>
+  <si>
+    <t>Bzxckk</t>
   </si>
 </sst>
 </file>
@@ -575,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,36 +633,57 @@
       <c r="A6" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B6" t="s" s="0">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B7" t="s" s="0">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B8" t="s" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B9" t="s" s="0">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B10" t="s" s="0">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B11" t="s" s="0">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B12" t="s" s="0">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
@@ -665,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/main/resources/allCell.xlsx
+++ b/src/main/resources/allCell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kofa69\IdeaProjects\HacatonFintech\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kofa69\IdeaProjects\HacatonBaumanka\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6740C-5DF9-418A-A8E5-85D216CA095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4621CC01-4110-47D5-8A0B-626344E803C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72A84E9F-4C57-40B5-8395-4D165779A846}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Ячейка</t>
   </si>
@@ -137,67 +137,13 @@
     <t/>
   </si>
   <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>Faf</t>
-  </si>
-  <si>
-    <t>Фвыыф</t>
-  </si>
-  <si>
-    <t>ЫФва</t>
-  </si>
-  <si>
-    <t>Фвыв</t>
-  </si>
-  <si>
-    <t>ВФВФВ</t>
-  </si>
-  <si>
-    <t>ФВаф</t>
-  </si>
-  <si>
-    <t>Фввыф</t>
-  </si>
-  <si>
-    <t>Afadsad</t>
-  </si>
-  <si>
-    <t>AsdADS</t>
-  </si>
-  <si>
-    <t>Adasd</t>
-  </si>
-  <si>
-    <t>Afsad</t>
-  </si>
-  <si>
-    <t>ФЫвчя</t>
-  </si>
-  <si>
-    <t>ASdxc</t>
-  </si>
-  <si>
-    <t>QWER</t>
-  </si>
-  <si>
-    <t>qewrt</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>ASdxzc</t>
-  </si>
-  <si>
-    <t>SAdzxzc</t>
-  </si>
-  <si>
-    <t>PIkmac</t>
-  </si>
-  <si>
-    <t>Bzxckk</t>
+    <t>Серва</t>
+  </si>
+  <si>
+    <t>Стойки</t>
+  </si>
+  <si>
+    <t>Ыячс</t>
   </si>
 </sst>
 </file>
@@ -580,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD6F8A-0D28-46A5-A660-FF28272D1FA8}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,97 +547,67 @@
       <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>51</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>36</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>37</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>45</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>47</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>50</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>52</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>53</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>34</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
@@ -713,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
